--- a/data/3-analysis/output-results/tables/sens-single-sponsor-institution-summary-1year-2023-11-28.xlsx
+++ b/data/3-analysis/output-results/tables/sens-single-sponsor-institution-summary-1year-2023-11-28.xlsx
@@ -616,7 +616,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C12">
         <v>2</v>
@@ -628,7 +628,7 @@
         <v>0.8</v>
       </c>
       <c r="F12">
-        <v>14.2</v>
+        <v>14.5</v>
       </c>
     </row>
     <row r="13">
@@ -823,7 +823,7 @@
         <v>11.1</v>
       </c>
       <c r="E21">
-        <v>4.4</v>
+        <v>4.399999999999999</v>
       </c>
       <c r="F21">
         <v>25.3</v>
@@ -942,33 +942,33 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Oslo University Hospital</t>
+          <t>Örebro University</t>
         </is>
       </c>
       <c r="B27">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="C27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>5.3</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Oulu University Hospital</t>
+          <t>Örebro University Hospital</t>
         </is>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C28">
         <v>0</v>
@@ -980,39 +980,39 @@
         <v>0</v>
       </c>
       <c r="F28">
-        <v>27.8</v>
+        <v>94.89999999999999</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Sahlgrenska University Hospital</t>
+          <t>Oslo University Hospital</t>
         </is>
       </c>
       <c r="B29">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="C29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E29">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F29">
-        <v>8.799999999999999</v>
+        <v>5.3</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Skane University Hospital</t>
+          <t>Oulu University Hospital</t>
         </is>
       </c>
       <c r="B30">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="C30">
         <v>0</v>
@@ -1024,17 +1024,17 @@
         <v>0</v>
       </c>
       <c r="F30">
-        <v>14.3</v>
+        <v>27.8</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>St. Olav’s University Hospital</t>
+          <t>Sahlgrenska University Hospital</t>
         </is>
       </c>
       <c r="B31">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C31">
         <v>0</v>
@@ -1046,17 +1046,17 @@
         <v>0</v>
       </c>
       <c r="F31">
-        <v>13.8</v>
+        <v>8.799999999999999</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Steno Diabetes Center Copenhagen</t>
+          <t>Skane University Hospital</t>
         </is>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C32">
         <v>0</v>
@@ -1068,17 +1068,17 @@
         <v>0</v>
       </c>
       <c r="F32">
-        <v>22.8</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Stockholm South General Hospital</t>
+          <t>St. Olav’s University Hospital</t>
         </is>
       </c>
       <c r="B33">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C33">
         <v>0</v>
@@ -1090,17 +1090,17 @@
         <v>0</v>
       </c>
       <c r="F33">
-        <v>56.10000000000001</v>
+        <v>13.8</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Tampere University Hospital</t>
+          <t>Steno Diabetes Center Copenhagen</t>
         </is>
       </c>
       <c r="B34">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="C34">
         <v>0</v>
@@ -1112,17 +1112,17 @@
         <v>0</v>
       </c>
       <c r="F34">
-        <v>14.9</v>
+        <v>22.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>The National University Hospital of Iceland</t>
+          <t>Stockholm South General Hospital</t>
         </is>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C35">
         <v>0</v>
@@ -1134,17 +1134,17 @@
         <v>0</v>
       </c>
       <c r="F35">
-        <v>43.4</v>
+        <v>56.10000000000001</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Turku University Hospital</t>
+          <t>Tampere University Hospital</t>
         </is>
       </c>
       <c r="B36">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="C36">
         <v>0</v>
@@ -1156,17 +1156,17 @@
         <v>0</v>
       </c>
       <c r="F36">
-        <v>7.4</v>
+        <v>14.9</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>UiT The Arctic University of Norway</t>
+          <t>The National University Hospital of Iceland</t>
         </is>
       </c>
       <c r="B37">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="C37">
         <v>0</v>
@@ -1178,17 +1178,17 @@
         <v>0</v>
       </c>
       <c r="F37">
-        <v>21.5</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Umeå University</t>
+          <t>Turku University Hospital</t>
         </is>
       </c>
       <c r="B38">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="C38">
         <v>0</v>
@@ -1200,17 +1200,17 @@
         <v>0</v>
       </c>
       <c r="F38">
-        <v>8.6</v>
+        <v>7.399999999999999</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>University Hospital of North Norway</t>
+          <t>UiT The Arctic University of Norway</t>
         </is>
       </c>
       <c r="B39">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="C39">
         <v>0</v>
@@ -1222,39 +1222,39 @@
         <v>0</v>
       </c>
       <c r="F39">
-        <v>18.4</v>
+        <v>21.5</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>University Hospital of Umeå</t>
+          <t>Umeå University</t>
         </is>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>41</v>
       </c>
       <c r="C40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>2.6</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>97.39999999999999</v>
+        <v>8.6</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>University of Bergen</t>
+          <t>University Hospital of North Norway</t>
         </is>
       </c>
       <c r="B41">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="C41">
         <v>0</v>
@@ -1266,39 +1266,39 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>11</v>
+        <v>18.4</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>University of Copenhagen</t>
+          <t>University Hospital of Umeå</t>
         </is>
       </c>
       <c r="B42">
-        <v>97</v>
+        <v>2</v>
       </c>
       <c r="C42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D42">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="E42">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="F42">
-        <v>3.8</v>
+        <v>97.39999999999999</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>University of Eastern Finland</t>
+          <t>University of Bergen</t>
         </is>
       </c>
       <c r="B43">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="C43">
         <v>0</v>
@@ -1310,17 +1310,17 @@
         <v>0</v>
       </c>
       <c r="F43">
-        <v>24.2</v>
+        <v>11</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>University of Helsinki</t>
+          <t>University of Copenhagen</t>
         </is>
       </c>
       <c r="B44">
-        <v>21</v>
+        <v>97</v>
       </c>
       <c r="C44">
         <v>0</v>
@@ -1332,17 +1332,17 @@
         <v>0</v>
       </c>
       <c r="F44">
-        <v>15.5</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>University of Iceland</t>
+          <t>University of Eastern Finland</t>
         </is>
       </c>
       <c r="B45">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C45">
         <v>0</v>
@@ -1354,17 +1354,17 @@
         <v>0</v>
       </c>
       <c r="F45">
-        <v>43.4</v>
+        <v>24.2</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>University of Oslo</t>
+          <t>University of Helsinki</t>
         </is>
       </c>
       <c r="B46">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C46">
         <v>0</v>
@@ -1376,39 +1376,39 @@
         <v>0</v>
       </c>
       <c r="F46">
-        <v>14.3</v>
+        <v>15.5</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>University of Oulu</t>
+          <t>University of Iceland</t>
         </is>
       </c>
       <c r="B47">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D47">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="E47">
-        <v>0.2</v>
+        <v>0</v>
       </c>
       <c r="F47">
-        <v>19.5</v>
+        <v>43.4</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>University of Southern Denmark</t>
+          <t>University of Oslo</t>
         </is>
       </c>
       <c r="B48">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="C48">
         <v>0</v>
@@ -1420,39 +1420,39 @@
         <v>0</v>
       </c>
       <c r="F48">
-        <v>8.4</v>
+        <v>14.3</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>University of Tampere</t>
+          <t>University of Oulu</t>
         </is>
       </c>
       <c r="B49">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="C49">
         <v>1</v>
       </c>
       <c r="D49">
-        <v>11.1</v>
+        <v>4</v>
       </c>
       <c r="E49">
-        <v>0.6</v>
+        <v>0.2</v>
       </c>
       <c r="F49">
-        <v>43.5</v>
+        <v>19.5</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>University of Turku</t>
+          <t>University of Southern Denmark</t>
         </is>
       </c>
       <c r="B50">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C50">
         <v>0</v>
@@ -1464,61 +1464,61 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>16.1</v>
+        <v>8.4</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Uppsala Academic Hospital</t>
+          <t>University of Tampere</t>
         </is>
       </c>
       <c r="B51">
         <v>9</v>
       </c>
       <c r="C51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D51">
-        <v>0</v>
+        <v>11.1</v>
       </c>
       <c r="E51">
-        <v>0</v>
+        <v>0.6</v>
       </c>
       <c r="F51">
-        <v>29.9</v>
+        <v>43.5</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Uppsala University</t>
+          <t>University of Turku</t>
         </is>
       </c>
       <c r="B52">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="C52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D52">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E52">
-        <v>0.1</v>
+        <v>0</v>
       </c>
       <c r="F52">
-        <v>10.3</v>
+        <v>16.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Zealand University Hospital</t>
+          <t>Uppsala Academic Hospital</t>
         </is>
       </c>
       <c r="B53">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C53">
         <v>0</v>
@@ -1530,39 +1530,39 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>12.1</v>
+        <v>29.9</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Örebro University</t>
+          <t>Uppsala University</t>
         </is>
       </c>
       <c r="B54">
-        <v>17</v>
+        <v>51</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="F54">
-        <v>18.4</v>
+        <v>10.3</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Örebro University Hospital</t>
+          <t>Zealand University Hospital</t>
         </is>
       </c>
       <c r="B55">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="C55">
         <v>0</v>
@@ -1574,7 +1574,7 @@
         <v>0</v>
       </c>
       <c r="F55">
-        <v>94.89999999999999</v>
+        <v>12.1</v>
       </c>
     </row>
   </sheetData>

--- a/data/3-analysis/output-results/tables/sens-single-sponsor-institution-summary-1year-2023-11-28.xlsx
+++ b/data/3-analysis/output-results/tables/sens-single-sponsor-institution-summary-1year-2023-11-28.xlsx
@@ -421,16 +421,16 @@
         <v>35</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>5.7</v>
+        <v>11.4</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>4.5</v>
       </c>
       <c r="F3">
-        <v>18.6</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4">
@@ -443,16 +443,16 @@
         <v>186</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D4">
-        <v>1.6</v>
+        <v>2.2</v>
       </c>
       <c r="E4">
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
       <c r="F4">
-        <v>4.6</v>
+        <v>5.4</v>
       </c>
     </row>
     <row r="5">
@@ -465,16 +465,16 @@
         <v>64</v>
       </c>
       <c r="C5">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5">
-        <v>4.7</v>
+        <v>6.2</v>
       </c>
       <c r="E5">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="F5">
-        <v>12.9</v>
+        <v>15</v>
       </c>
     </row>
     <row r="6">
@@ -509,16 +509,16 @@
         <v>77</v>
       </c>
       <c r="C7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D7">
-        <v>2.6</v>
+        <v>3.9</v>
       </c>
       <c r="E7">
-        <v>0.5</v>
+        <v>1.3</v>
       </c>
       <c r="F7">
-        <v>9</v>
+        <v>10.8</v>
       </c>
     </row>
     <row r="8">
@@ -1059,16 +1059,16 @@
         <v>23</v>
       </c>
       <c r="C32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D32">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="E32">
-        <v>0</v>
+        <v>0.2</v>
       </c>
       <c r="F32">
-        <v>14.3</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33">
